--- a/评测模型/测评模型.xlsx
+++ b/评测模型/测评模型.xlsx
@@ -1,37 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="21863" windowHeight="10020" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="评测问题 - 评测问题" sheetId="1" r:id="rId4"/>
-    <sheet name="评测模型 - 评测模型" sheetId="2" r:id="rId5"/>
-    <sheet name="评测模型 - 定寿保额表" sheetId="3" r:id="rId6"/>
-    <sheet name="保险顺序 - 表格 1" sheetId="4" r:id="rId7"/>
-    <sheet name="保险顺序 - 表格 1-1" sheetId="5" r:id="rId8"/>
-    <sheet name="保险顺序 - 表格 1-1-1" sheetId="6" r:id="rId9"/>
-    <sheet name="了解更多 - 18-49周岁" sheetId="7" r:id="rId10"/>
-    <sheet name="保费模型 - 医疗险保费模型" sheetId="8" r:id="rId11"/>
-    <sheet name="保费模型 - 医疗险保费数据" sheetId="9" r:id="rId12"/>
-    <sheet name="保费模型 - 意外险保费模型" sheetId="10" r:id="rId13"/>
-    <sheet name="保费模型 - 意外险保费数据" sheetId="11" r:id="rId14"/>
-    <sheet name="保费模型 - 寿险费率模型：保至60岁：缴20年：每1万的保费" sheetId="12" r:id="rId15"/>
-    <sheet name="保费模型 - 寿险费率模型：保至60岁：缴10年：每1万的保费" sheetId="13" r:id="rId16"/>
-    <sheet name="保费模型 - 寿险费率数据：保至60岁：缴20年" sheetId="14" r:id="rId17"/>
-    <sheet name="保费模型 - 寿险费率数据：保至60岁：缴10年" sheetId="15" r:id="rId18"/>
-    <sheet name="保费模型 - 重疾险费率数据：终身重疾：缴20年" sheetId="16" r:id="rId19"/>
-    <sheet name="保费模型 - 重疾险费率数据：终身重疾：缴10年" sheetId="17" r:id="rId20"/>
-    <sheet name="保费模型 - 重疾险费率模型：终身重疾：缴20年：每一万的保费" sheetId="18" r:id="rId21"/>
-    <sheet name="保费模型 - 重疾险费率模型：终身重疾：缴10年：每一万的保费" sheetId="19" r:id="rId22"/>
-    <sheet name="保费模型 - 重疾险保费数据：1年期" sheetId="20" r:id="rId23"/>
-    <sheet name="保费模型 - 重疾险保费模型：1年期" sheetId="21" r:id="rId24"/>
+    <sheet name="评测问题 - 评测问题" sheetId="1" r:id="rId1"/>
+    <sheet name="评测模型 - 评测模型" sheetId="2" r:id="rId2"/>
+    <sheet name="评测模型 - 定寿保额表" sheetId="3" r:id="rId3"/>
+    <sheet name="保险顺序 - 表格 1" sheetId="4" r:id="rId4"/>
+    <sheet name="保险顺序 - 表格 1-1" sheetId="5" r:id="rId5"/>
+    <sheet name="保险顺序 - 表格 1-1-1" sheetId="6" r:id="rId6"/>
+    <sheet name="了解更多 - 18-49周岁" sheetId="7" r:id="rId7"/>
+    <sheet name="保费模型 - 医疗险保费模型" sheetId="8" r:id="rId8"/>
+    <sheet name="保费模型 - 医疗险保费数据" sheetId="9" r:id="rId9"/>
+    <sheet name="保费模型 - 意外险保费模型" sheetId="10" r:id="rId10"/>
+    <sheet name="保费模型 - 意外险保费数据" sheetId="11" r:id="rId11"/>
+    <sheet name="保费模型 - 寿险费率模型_保至60岁_缴20年_每1万的保费" sheetId="12" r:id="rId12"/>
+    <sheet name="保费模型 - 寿险费率模型_保至60岁_缴10年_每1万的保费" sheetId="13" r:id="rId13"/>
+    <sheet name="保费模型 - 寿险费率数据_保至60岁_缴20年" sheetId="14" r:id="rId14"/>
+    <sheet name="保费模型 - 寿险费率数据_保至60岁_缴10年" sheetId="15" r:id="rId15"/>
+    <sheet name="保费模型 - 重疾险费率数据_终身重疾_缴20年" sheetId="16" r:id="rId16"/>
+    <sheet name="保费模型 - 重疾险费率数据_终身重疾_缴10年" sheetId="17" r:id="rId17"/>
+    <sheet name="保费模型 - 重疾险费率模型_终身重疾_缴20年_每一万的保费" sheetId="18" r:id="rId18"/>
+    <sheet name="保费模型 - 重疾险费率模型_终身重疾_缴10年_每一万的保费" sheetId="19" r:id="rId19"/>
+    <sheet name="保费模型 - 重疾险保费数据_1年期" sheetId="20" r:id="rId20"/>
+    <sheet name="保费模型 - 重疾险保费模型_1年期" sheetId="21" r:id="rId21"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="469">
   <si>
     <t>评测问题</t>
   </si>
@@ -223,6 +226,9 @@
   </si>
   <si>
     <t>定寿保额表</t>
+  </si>
+  <si>
+    <t>41-50周岁</t>
   </si>
   <si>
     <t>至60岁/缴10年</t>
@@ -306,9 +312,6 @@
   </si>
   <si>
     <t>意外险、重疾险、寿险、医疗险</t>
-  </si>
-  <si>
-    <t>41-50周岁</t>
   </si>
   <si>
     <t>意外险、医疗险、重疾险</t>
@@ -949,6 +952,7 @@
         <sz val="12"/>
         <color indexed="8"/>
         <rFont val="Times Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>阳光 i 保定期寿险、华贵大麦 2020 定期寿险、国富人寿定海柱 1 号定期寿险、</t>
     </r>
@@ -957,6 +961,7 @@
         <sz val="12"/>
         <color indexed="14"/>
         <rFont val="Times Roman"/>
+        <charset val="134"/>
       </rPr>
       <t>同方全球「臻爱」优选定期寿险</t>
     </r>
@@ -1467,43 +1472,210 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="14"/>
       <name val="Times Roman"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1513,29 +1685,215 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="15"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
-        <bgColor auto="1"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1555,6 +1913,21 @@
       </top>
       <bottom style="thin">
         <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1596,7 +1969,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -1635,252 +2008,522 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="46">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="fffff056"/>
-      <rgbColor rgb="fff27100"/>
-      <rgbColor rgb="ff56c1fe"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00BDC0BF"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="003F3F3F"/>
+      <rgbColor rgb="00DBDBDB"/>
+      <rgbColor rgb="00FFF056"/>
+      <rgbColor rgb="00F27100"/>
+      <rgbColor rgb="0056C1FE"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -2076,8 +2719,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -2097,8 +2738,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="2200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="2200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2127,8 +2767,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2153,8 +2792,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2179,8 +2817,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2205,8 +2842,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2231,8 +2867,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2257,8 +2892,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2283,8 +2917,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2309,8 +2942,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2335,8 +2967,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2349,9 +2980,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2365,8 +3002,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -2386,8 +3021,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2412,8 +3046,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2438,8 +3071,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2464,8 +3096,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2490,8 +3121,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2516,8 +3146,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2542,8 +3171,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2568,8 +3196,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2594,8 +3221,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2620,8 +3246,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2634,9 +3259,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2647,8 +3278,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -2668,8 +3297,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2698,8 +3326,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2724,8 +3351,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2750,8 +3376,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2776,8 +3401,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2802,8 +3426,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2828,8 +3451,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2854,8 +3476,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2880,8 +3501,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2906,8 +3526,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2920,9 +3539,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -2931,26 +3556,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="28.2656" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.9531" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7578" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.0312" style="1" customWidth="1"/>
-    <col min="6" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.2685185185185" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.9537037037037" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.3518518518519" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7592592592593" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.0277777777778" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="31" customHeight="1" spans="1:7">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
@@ -2960,157 +3589,157 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="22.55" customHeight="1" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="5">
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+    </row>
+    <row r="3" ht="22.55" customHeight="1" spans="1:7">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-    </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="9">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+    </row>
+    <row r="4" ht="22.35" customHeight="1" spans="1:7">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+    </row>
+    <row r="5" ht="22.35" customHeight="1" spans="1:7">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="9">
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" ht="22.35" customHeight="1" spans="1:7">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s" s="12">
+      <c r="D6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s" s="12">
+      <c r="E6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F6" t="s" s="12">
+      <c r="F6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G6" t="s" s="12">
+      <c r="G6" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" ht="22.35" customHeight="1" spans="1:7">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="10">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" t="s" s="9">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" ht="22.35" customHeight="1" spans="1:7">
+      <c r="A8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s" s="10">
+      <c r="B8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s" s="12">
+      <c r="C8" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" t="s" s="9">
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" ht="22.35" customHeight="1" spans="1:7">
+      <c r="A9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s" s="10">
+      <c r="B9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s" s="12">
+      <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" t="s" s="12">
+      <c r="D9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s" s="12">
+      <c r="E9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s" s="12">
+      <c r="F9" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" t="s" s="9">
+    <row r="10" ht="22.35" customHeight="1" spans="1:7">
+      <c r="A10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s" s="10">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" scale="72" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3118,66 +3747,70 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:B6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="20.6328" style="43" customWidth="1"/>
-    <col min="2" max="2" width="24.75" style="43" customWidth="1"/>
-    <col min="3" max="16384" width="16.3516" style="43" customWidth="1"/>
+    <col min="1" max="1" width="20.6296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24.75" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="31" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="22.55" customHeight="1" spans="1:2">
+      <c r="A2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" ht="22.55" customHeight="1" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" ht="22.35" customHeight="1" spans="1:2">
+      <c r="A4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" s="10" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" ht="22.35" customHeight="1" spans="1:2">
+      <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" ht="22.35" customHeight="1" spans="1:2">
+      <c r="A6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" s="10" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3186,7 +3819,7 @@
     <mergeCell ref="A1:B1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3194,185 +3827,189 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J6"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="20.6328" style="44" customWidth="1"/>
-    <col min="2" max="2" width="11.1406" style="44" customWidth="1"/>
-    <col min="3" max="3" width="11.1797" style="44" customWidth="1"/>
-    <col min="4" max="4" width="10.6953" style="44" customWidth="1"/>
-    <col min="5" max="5" width="8.67188" style="44" customWidth="1"/>
-    <col min="6" max="6" width="10.0547" style="44" customWidth="1"/>
-    <col min="7" max="7" width="8.73438" style="44" customWidth="1"/>
-    <col min="8" max="10" width="10.8516" style="44" customWidth="1"/>
-    <col min="11" max="16384" width="16.3516" style="44" customWidth="1"/>
+    <col min="1" max="1" width="20.6296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1388888888889" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1759259259259" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6944444444444" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.67592592592593" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.0555555555556" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.73148148148148" style="1" customWidth="1"/>
+    <col min="8" max="10" width="10.8518518518519" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="42">
+    <row r="1" ht="31" customHeight="1" spans="1:10">
+      <c r="A1" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-    </row>
-    <row r="2" ht="36.8" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+    </row>
+    <row r="2" ht="36.8" customHeight="1" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="E2" t="s" s="45">
+      <c r="E2" s="21" t="s">
         <v>189</v>
       </c>
-      <c r="F2" t="s" s="45">
+      <c r="F2" s="21" t="s">
         <v>190</v>
       </c>
-      <c r="G2" t="s" s="45">
+      <c r="G2" s="21" t="s">
         <v>191</v>
       </c>
-      <c r="H2" t="s" s="45">
+      <c r="H2" s="21" t="s">
         <v>192</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="I2" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="J2" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" ht="22.55" customHeight="1" spans="1:10">
+      <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
-      <c r="E3" t="s" s="46">
+      <c r="E3" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="F3" t="s" s="46">
+      <c r="F3" s="22" t="s">
         <v>196</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" t="s" s="46">
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
         <v>197</v>
       </c>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" ht="22.35" customHeight="1" spans="1:10">
+      <c r="A4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="D4" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="E4" t="s" s="47">
+      <c r="E4" s="23" t="s">
         <v>200</v>
       </c>
-      <c r="F4" t="s" s="47">
+      <c r="F4" s="23" t="s">
         <v>201</v>
       </c>
-      <c r="G4" t="s" s="47">
+      <c r="G4" s="23" t="s">
         <v>202</v>
       </c>
-      <c r="H4" t="s" s="47">
+      <c r="H4" s="23" t="s">
         <v>203</v>
       </c>
-      <c r="I4" t="s" s="12">
+      <c r="I4" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="J4" t="s" s="12">
+      <c r="J4" s="11" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" ht="22.35" customHeight="1" spans="1:10">
+      <c r="A5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="E5" t="s" s="47">
+      <c r="E5" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="F5" t="s" s="47">
+      <c r="F5" s="23" t="s">
         <v>209</v>
       </c>
-      <c r="G5" t="s" s="47">
+      <c r="G5" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="H5" t="s" s="47">
+      <c r="H5" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="I5" t="s" s="12">
+      <c r="I5" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="J5" t="s" s="12">
+      <c r="J5" s="11" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" ht="22.35" customHeight="1" spans="1:10">
+      <c r="A6" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" t="s" s="47">
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="F6" t="s" s="47">
+      <c r="F6" s="23" t="s">
         <v>214</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" t="s" s="47">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23" t="s">
         <v>215</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3380,149 +4017,153 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="9.88281" style="48" customWidth="1"/>
-    <col min="3" max="3" width="9.95312" style="48" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="48" customWidth="1"/>
+    <col min="1" max="1" width="12.3796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.87962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.9537037037037" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="69.2" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="69.2" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="22.55" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="22.2" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" ht="22.2" customHeight="1" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B3" t="s" s="49">
+      <c r="B3" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C3" t="s" s="50">
+      <c r="C3" s="15" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="4" ht="22" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" ht="22" customHeight="1" spans="1:3">
+      <c r="A4" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B4" t="s" s="51">
+      <c r="B4" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C4" t="s" s="52">
+      <c r="C4" s="17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="5" ht="22" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" ht="22" customHeight="1" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B5" t="s" s="51">
+      <c r="B5" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="C5" t="s" s="52">
+      <c r="C5" s="17" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="6" ht="22" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" ht="22" customHeight="1" spans="1:3">
+      <c r="A6" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B6" t="s" s="51">
+      <c r="B6" s="16" t="s">
         <v>227</v>
       </c>
-      <c r="C6" t="s" s="52">
+      <c r="C6" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="7" ht="22" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" ht="22" customHeight="1" spans="1:3">
+      <c r="A7" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B7" t="s" s="51">
+      <c r="B7" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="C7" t="s" s="52">
+      <c r="C7" s="17" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="8" ht="22" customHeight="1">
-      <c r="A8" t="s" s="9">
+    <row r="8" ht="22" customHeight="1" spans="1:3">
+      <c r="A8" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B8" t="s" s="51">
+      <c r="B8" s="16" t="s">
         <v>233</v>
       </c>
-      <c r="C8" t="s" s="52">
+      <c r="C8" s="17" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" ht="22" customHeight="1">
-      <c r="A9" t="s" s="9">
+    <row r="9" ht="22" customHeight="1" spans="1:3">
+      <c r="A9" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B9" t="s" s="51">
+      <c r="B9" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C9" t="s" s="52">
+      <c r="C9" s="17" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="10" ht="22" customHeight="1">
-      <c r="A10" t="s" s="9">
+    <row r="10" ht="22" customHeight="1" spans="1:3">
+      <c r="A10" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B10" t="s" s="51">
+      <c r="B10" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="C10" t="s" s="52">
+      <c r="C10" s="17" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="11" ht="22" customHeight="1">
-      <c r="A11" t="s" s="9">
+    <row r="11" ht="22" customHeight="1" spans="1:3">
+      <c r="A11" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B11" t="s" s="51">
+      <c r="B11" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="C11" t="s" s="52">
+      <c r="C11" s="17" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="12" ht="22" customHeight="1">
-      <c r="A12" t="s" s="9">
+    <row r="12" ht="22" customHeight="1" spans="1:3">
+      <c r="A12" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B12" t="s" s="51">
+      <c r="B12" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="C12" t="s" s="52">
+      <c r="C12" s="17" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3531,7 +4172,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3539,149 +4180,153 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="53" customWidth="1"/>
-    <col min="2" max="2" width="9.88281" style="53" customWidth="1"/>
-    <col min="3" max="3" width="9.97656" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="53" customWidth="1"/>
+    <col min="1" max="1" width="12.3796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.87962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.97222222222222" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="69.2" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="69.2" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>247</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="22.55" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="22.2" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" ht="22.2" customHeight="1" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B3" t="s" s="49">
+      <c r="B3" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="C3" t="s" s="50">
+      <c r="C3" s="15" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="4" ht="22" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" ht="22" customHeight="1" spans="1:3">
+      <c r="A4" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B4" t="s" s="51">
+      <c r="B4" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C4" t="s" s="52">
+      <c r="C4" s="17" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="5" ht="22" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" ht="22" customHeight="1" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B5" t="s" s="51">
+      <c r="B5" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C5" t="s" s="52">
+      <c r="C5" s="17" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="6" ht="22" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" ht="22" customHeight="1" spans="1:3">
+      <c r="A6" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B6" t="s" s="51">
+      <c r="B6" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="C6" t="s" s="52">
+      <c r="C6" s="17" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="7" ht="22" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" ht="22" customHeight="1" spans="1:3">
+      <c r="A7" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B7" t="s" s="51">
+      <c r="B7" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C7" t="s" s="52">
+      <c r="C7" s="17" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="8" ht="22" customHeight="1">
-      <c r="A8" t="s" s="9">
+    <row r="8" ht="22" customHeight="1" spans="1:3">
+      <c r="A8" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B8" t="s" s="51">
+      <c r="B8" s="16" t="s">
         <v>264</v>
       </c>
-      <c r="C8" t="s" s="52">
+      <c r="C8" s="17" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="9" ht="22" customHeight="1">
-      <c r="A9" t="s" s="9">
+    <row r="9" ht="22" customHeight="1" spans="1:3">
+      <c r="A9" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B9" t="s" s="51">
+      <c r="B9" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="C9" t="s" s="52">
+      <c r="C9" s="17" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="10" ht="22" customHeight="1">
-      <c r="A10" t="s" s="9">
+    <row r="10" ht="22" customHeight="1" spans="1:3">
+      <c r="A10" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B10" t="s" s="51">
+      <c r="B10" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="C10" t="s" s="52">
+      <c r="C10" s="17" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="11" ht="22" customHeight="1">
-      <c r="A11" t="s" s="9">
+    <row r="11" ht="22" customHeight="1" spans="1:3">
+      <c r="A11" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B11" t="s" s="51">
+      <c r="B11" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="C11" t="s" s="52">
+      <c r="C11" s="17" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="12" ht="22" customHeight="1">
-      <c r="A12" t="s" s="9">
+    <row r="12" ht="22" customHeight="1" spans="1:3">
+      <c r="A12" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B12" t="s" s="51">
+      <c r="B12" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C12" t="s" s="52">
+      <c r="C12" s="17" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3690,7 +4335,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3698,156 +4343,160 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B4" xSplit="1" ySplit="3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="54" customWidth="1"/>
-    <col min="2" max="2" width="25.4453" style="54" customWidth="1"/>
-    <col min="3" max="3" width="27.1016" style="54" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="54" customWidth="1"/>
+    <col min="1" max="1" width="12.3796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1018518518519" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="69.2" customHeight="1">
-      <c r="A1" t="s" s="42">
+    <row r="1" ht="69.2" customHeight="1" spans="1:3">
+      <c r="A1" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-    </row>
-    <row r="2" ht="42.35" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" t="s" s="56">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" ht="42.35" customHeight="1" spans="1:3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="57"/>
-    </row>
-    <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="3">
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" ht="22.55" customHeight="1" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="25.55" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" ht="25.55" customHeight="1" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B4" t="s" s="49">
+      <c r="B4" s="14" t="s">
         <v>280</v>
       </c>
-      <c r="C4" t="s" s="50">
+      <c r="C4" s="15" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="5" ht="25.35" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B5" t="s" s="51">
+      <c r="B5" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C5" t="s" s="52">
+      <c r="C5" s="17" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="6" ht="25.35" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A6" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B6" t="s" s="51">
+      <c r="B6" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C6" t="s" s="52">
+      <c r="C6" s="17" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="7" ht="25.35" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A7" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B7" t="s" s="51">
+      <c r="B7" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C7" t="s" s="52">
+      <c r="C7" s="17" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="8" ht="25.35" customHeight="1">
-      <c r="A8" t="s" s="9">
+    <row r="8" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A8" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B8" t="s" s="51">
+      <c r="B8" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C8" t="s" s="52">
+      <c r="C8" s="17" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="9" ht="25.35" customHeight="1">
-      <c r="A9" t="s" s="9">
+    <row r="9" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A9" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B9" t="s" s="51">
+      <c r="B9" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C9" t="s" s="52">
+      <c r="C9" s="17" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="10" ht="25.35" customHeight="1">
-      <c r="A10" t="s" s="9">
+    <row r="10" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A10" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B10" t="s" s="51">
+      <c r="B10" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C10" t="s" s="52">
+      <c r="C10" s="17" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="11" ht="25.35" customHeight="1">
-      <c r="A11" t="s" s="9">
+    <row r="11" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A11" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B11" t="s" s="51">
+      <c r="B11" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C11" t="s" s="52">
+      <c r="C11" s="17" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="12" ht="25.35" customHeight="1">
-      <c r="A12" t="s" s="9">
+    <row r="12" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A12" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B12" t="s" s="51">
+      <c r="B12" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C12" t="s" s="52">
+      <c r="C12" s="17" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="13" ht="25.35" customHeight="1">
-      <c r="A13" t="s" s="9">
+    <row r="13" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A13" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B13" t="s" s="51">
+      <c r="B13" s="16" t="s">
         <v>298</v>
       </c>
-      <c r="C13" t="s" s="52">
+      <c r="C13" s="17" t="s">
         <v>299</v>
       </c>
     </row>
@@ -3857,7 +4506,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -3865,156 +4514,160 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B4" xSplit="1" ySplit="3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="25.4453" style="58" customWidth="1"/>
-    <col min="3" max="3" width="27.1016" style="58" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="58" customWidth="1"/>
+    <col min="1" max="1" width="12.3796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1018518518519" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="69.2" customHeight="1">
-      <c r="A1" t="s" s="42">
+    <row r="1" ht="69.2" customHeight="1" spans="1:3">
+      <c r="A1" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-    </row>
-    <row r="2" ht="42.35" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" t="s" s="56">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" ht="42.35" customHeight="1" spans="1:3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="C2" s="57"/>
-    </row>
-    <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="3">
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" ht="22.55" customHeight="1" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="25.55" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" ht="25.55" customHeight="1" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B4" t="s" s="49">
+      <c r="B4" s="14" t="s">
         <v>302</v>
       </c>
-      <c r="C4" t="s" s="50">
+      <c r="C4" s="15" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="5" ht="25.35" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B5" t="s" s="51">
+      <c r="B5" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="C5" t="s" s="52">
+      <c r="C5" s="17" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="6" ht="25.35" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A6" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B6" t="s" s="51">
+      <c r="B6" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="C6" t="s" s="52">
+      <c r="C6" s="17" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="7" ht="25.35" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A7" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B7" t="s" s="51">
+      <c r="B7" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="C7" t="s" s="52">
+      <c r="C7" s="17" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="8" ht="25.35" customHeight="1">
-      <c r="A8" t="s" s="9">
+    <row r="8" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A8" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B8" t="s" s="51">
+      <c r="B8" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="C8" t="s" s="52">
+      <c r="C8" s="17" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="9" ht="25.35" customHeight="1">
-      <c r="A9" t="s" s="9">
+    <row r="9" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A9" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B9" t="s" s="51">
+      <c r="B9" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="C9" t="s" s="52">
+      <c r="C9" s="17" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="10" ht="25.35" customHeight="1">
-      <c r="A10" t="s" s="9">
+    <row r="10" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A10" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B10" t="s" s="51">
+      <c r="B10" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C10" t="s" s="52">
+      <c r="C10" s="17" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="11" ht="25.35" customHeight="1">
-      <c r="A11" t="s" s="9">
+    <row r="11" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A11" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B11" t="s" s="51">
+      <c r="B11" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="C11" t="s" s="52">
+      <c r="C11" s="17" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="12" ht="25.35" customHeight="1">
-      <c r="A12" t="s" s="9">
+    <row r="12" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A12" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B12" t="s" s="51">
+      <c r="B12" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="C12" t="s" s="52">
+      <c r="C12" s="17" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="13" ht="25.35" customHeight="1">
-      <c r="A13" t="s" s="9">
+    <row r="13" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A13" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B13" t="s" s="51">
+      <c r="B13" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="C13" t="s" s="52">
+      <c r="C13" s="17" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4024,7 +4677,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4032,266 +4685,270 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C23"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B4" xSplit="1" ySplit="3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="59" customWidth="1"/>
-    <col min="2" max="2" width="25.4453" style="59" customWidth="1"/>
-    <col min="3" max="3" width="27.1016" style="59" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="59" customWidth="1"/>
+    <col min="1" max="1" width="12.3796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1018518518519" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="69.2" customHeight="1">
-      <c r="A1" t="s" s="42">
+    <row r="1" ht="69.2" customHeight="1" spans="1:3">
+      <c r="A1" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-    </row>
-    <row r="2" ht="42.35" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" t="s" s="56">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" ht="42.35" customHeight="1" spans="1:3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="57"/>
-    </row>
-    <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="3">
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" ht="22.55" customHeight="1" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="25.55" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" ht="25.55" customHeight="1" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B4" t="s" s="49">
+      <c r="B4" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="C4" t="s" s="50">
+      <c r="C4" s="15" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="5" ht="25.35" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B5" t="s" s="51">
+      <c r="B5" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="C5" t="s" s="52">
+      <c r="C5" s="17" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="6" ht="25.35" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A6" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B6" t="s" s="51">
+      <c r="B6" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="C6" t="s" s="52">
+      <c r="C6" s="17" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="7" ht="25.35" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A7" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B7" t="s" s="51">
+      <c r="B7" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="C7" t="s" s="52">
+      <c r="C7" s="17" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="8" ht="25.35" customHeight="1">
-      <c r="A8" t="s" s="9">
+    <row r="8" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A8" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="B8" t="s" s="51">
+      <c r="B8" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="C8" t="s" s="52">
+      <c r="C8" s="17" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="9" ht="25.35" customHeight="1">
-      <c r="A9" t="s" s="9">
+    <row r="9" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A9" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="B9" t="s" s="51">
+      <c r="B9" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="C9" t="s" s="52">
+      <c r="C9" s="17" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="10" ht="25.35" customHeight="1">
-      <c r="A10" t="s" s="9">
+    <row r="10" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A10" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B10" t="s" s="51">
+      <c r="B10" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="C10" t="s" s="52">
+      <c r="C10" s="17" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="11" ht="25.35" customHeight="1">
-      <c r="A11" t="s" s="9">
+    <row r="11" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A11" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B11" t="s" s="51">
+      <c r="B11" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="C11" t="s" s="52">
+      <c r="C11" s="17" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="12" ht="25.35" customHeight="1">
-      <c r="A12" t="s" s="9">
+    <row r="12" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A12" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B12" t="s" s="51">
+      <c r="B12" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="C12" t="s" s="52">
+      <c r="C12" s="17" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="13" ht="25.35" customHeight="1">
-      <c r="A13" t="s" s="9">
+    <row r="13" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A13" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="B13" t="s" s="51">
+      <c r="B13" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="C13" t="s" s="52">
+      <c r="C13" s="17" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="14" ht="25.35" customHeight="1">
-      <c r="A14" t="s" s="9">
+    <row r="14" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A14" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B14" t="s" s="51">
+      <c r="B14" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="C14" t="s" s="52">
+      <c r="C14" s="17" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="15" ht="25.35" customHeight="1">
-      <c r="A15" t="s" s="9">
+    <row r="15" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A15" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B15" t="s" s="51">
+      <c r="B15" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C15" t="s" s="52">
+      <c r="C15" s="17" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="16" ht="25.35" customHeight="1">
-      <c r="A16" t="s" s="9">
+    <row r="16" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A16" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B16" t="s" s="51">
+      <c r="B16" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="C16" t="s" s="52">
+      <c r="C16" s="17" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="17" ht="25.35" customHeight="1">
-      <c r="A17" t="s" s="9">
+    <row r="17" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A17" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B17" t="s" s="51">
+      <c r="B17" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="C17" t="s" s="52">
+      <c r="C17" s="17" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="18" ht="25.35" customHeight="1">
-      <c r="A18" t="s" s="9">
+    <row r="18" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A18" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B18" t="s" s="51">
+      <c r="B18" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C18" t="s" s="52">
+      <c r="C18" s="17" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="19" ht="25.35" customHeight="1">
-      <c r="A19" t="s" s="9">
+    <row r="19" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A19" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B19" t="s" s="51">
+      <c r="B19" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C19" t="s" s="52">
+      <c r="C19" s="17" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="20" ht="25.35" customHeight="1">
-      <c r="A20" t="s" s="9">
+    <row r="20" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A20" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B20" t="s" s="51">
+      <c r="B20" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="C20" t="s" s="52">
+      <c r="C20" s="17" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="21" ht="25.35" customHeight="1">
-      <c r="A21" t="s" s="9">
+    <row r="21" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A21" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B21" t="s" s="51">
+      <c r="B21" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="C21" t="s" s="52">
+      <c r="C21" s="17" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="22" ht="25.35" customHeight="1">
-      <c r="A22" t="s" s="9">
+    <row r="22" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A22" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B22" t="s" s="51">
+      <c r="B22" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="C22" t="s" s="52">
+      <c r="C22" s="17" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="23" ht="25.35" customHeight="1">
-      <c r="A23" t="s" s="9">
+    <row r="23" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A23" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B23" t="s" s="51">
+      <c r="B23" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="C23" t="s" s="52">
+      <c r="C23" s="17" t="s">
         <v>373</v>
       </c>
     </row>
@@ -4301,7 +4958,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4309,156 +4966,160 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C13"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B4" xSplit="1" ySplit="3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="60" customWidth="1"/>
-    <col min="2" max="2" width="25.4453" style="60" customWidth="1"/>
-    <col min="3" max="3" width="27.1016" style="60" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="60" customWidth="1"/>
+    <col min="1" max="1" width="12.3796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.4444444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.1018518518519" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="69.2" customHeight="1">
-      <c r="A1" t="s" s="42">
+    <row r="1" ht="69.2" customHeight="1" spans="1:3">
+      <c r="A1" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-    </row>
-    <row r="2" ht="42.35" customHeight="1">
-      <c r="A2" s="55"/>
-      <c r="B2" t="s" s="56">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" ht="42.35" customHeight="1" spans="1:3">
+      <c r="A2" s="18"/>
+      <c r="B2" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="C2" s="57"/>
-    </row>
-    <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="3">
+      <c r="C2" s="20"/>
+    </row>
+    <row r="3" ht="22.55" customHeight="1" spans="1:3">
+      <c r="A3" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="25.55" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" ht="25.55" customHeight="1" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B4" t="s" s="49">
+      <c r="B4" s="14" t="s">
         <v>375</v>
       </c>
-      <c r="C4" t="s" s="50">
+      <c r="C4" s="15" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="5" ht="25.35" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B5" t="s" s="51">
+      <c r="B5" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="C5" t="s" s="52">
+      <c r="C5" s="17" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="6" ht="25.35" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A6" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B6" t="s" s="51">
+      <c r="B6" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="C6" t="s" s="52">
+      <c r="C6" s="17" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="7" ht="25.35" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A7" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B7" t="s" s="51">
+      <c r="B7" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="C7" t="s" s="52">
+      <c r="C7" s="17" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="8" ht="25.35" customHeight="1">
-      <c r="A8" t="s" s="9">
+    <row r="8" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A8" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B8" t="s" s="51">
+      <c r="B8" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="C8" t="s" s="52">
+      <c r="C8" s="17" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="9" ht="25.35" customHeight="1">
-      <c r="A9" t="s" s="9">
+    <row r="9" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A9" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B9" t="s" s="51">
+      <c r="B9" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="C9" t="s" s="52">
+      <c r="C9" s="17" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="10" ht="25.35" customHeight="1">
-      <c r="A10" t="s" s="9">
+    <row r="10" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A10" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B10" t="s" s="51">
+      <c r="B10" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="C10" t="s" s="52">
+      <c r="C10" s="17" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="11" ht="25.35" customHeight="1">
-      <c r="A11" t="s" s="9">
+    <row r="11" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A11" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B11" t="s" s="51">
+      <c r="B11" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="C11" t="s" s="52">
+      <c r="C11" s="17" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="12" ht="25.35" customHeight="1">
-      <c r="A12" t="s" s="9">
+    <row r="12" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A12" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B12" t="s" s="51">
+      <c r="B12" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="C12" t="s" s="52">
+      <c r="C12" s="17" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="13" ht="25.35" customHeight="1">
-      <c r="A13" t="s" s="9">
+    <row r="13" ht="25.35" customHeight="1" spans="1:3">
+      <c r="A13" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B13" t="s" s="51">
+      <c r="B13" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="C13" t="s" s="52">
+      <c r="C13" s="17" t="s">
         <v>394</v>
       </c>
     </row>
@@ -4468,7 +5129,7 @@
     <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4476,259 +5137,263 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C22"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="61" customWidth="1"/>
-    <col min="2" max="2" width="11.4219" style="61" customWidth="1"/>
-    <col min="3" max="3" width="11.7578" style="61" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="61" customWidth="1"/>
+    <col min="1" max="1" width="12.3796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.4259259259259" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7592592592593" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="69.2" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="69.2" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>395</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="22.55" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="22.2" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" ht="22.2" customHeight="1" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B3" t="s" s="49">
+      <c r="B3" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="C3" t="s" s="50">
+      <c r="C3" s="15" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="4" ht="22" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" ht="22" customHeight="1" spans="1:3">
+      <c r="A4" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="B4" t="s" s="51">
+      <c r="B4" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="C4" t="s" s="52">
+      <c r="C4" s="17" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="5" ht="22" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" ht="22" customHeight="1" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B5" t="s" s="51">
+      <c r="B5" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="C5" t="s" s="52">
+      <c r="C5" s="17" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="6" ht="22" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" ht="22" customHeight="1" spans="1:3">
+      <c r="A6" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B6" t="s" s="51">
+      <c r="B6" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="C6" t="s" s="52">
+      <c r="C6" s="17" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="7" ht="22" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" ht="22" customHeight="1" spans="1:3">
+      <c r="A7" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="B7" t="s" s="51">
+      <c r="B7" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="C7" t="s" s="52">
+      <c r="C7" s="17" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="8" ht="22" customHeight="1">
-      <c r="A8" t="s" s="9">
+    <row r="8" ht="22" customHeight="1" spans="1:3">
+      <c r="A8" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="B8" t="s" s="51">
+      <c r="B8" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="C8" t="s" s="52">
+      <c r="C8" s="17" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="9" ht="22" customHeight="1">
-      <c r="A9" t="s" s="9">
+    <row r="9" ht="22" customHeight="1" spans="1:3">
+      <c r="A9" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B9" t="s" s="51">
+      <c r="B9" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="C9" t="s" s="52">
+      <c r="C9" s="17" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="10" ht="22" customHeight="1">
-      <c r="A10" t="s" s="9">
+    <row r="10" ht="22" customHeight="1" spans="1:3">
+      <c r="A10" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B10" t="s" s="51">
+      <c r="B10" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="C10" t="s" s="52">
+      <c r="C10" s="17" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="11" ht="22" customHeight="1">
-      <c r="A11" t="s" s="9">
+    <row r="11" ht="22" customHeight="1" spans="1:3">
+      <c r="A11" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B11" t="s" s="51">
+      <c r="B11" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="C11" t="s" s="52">
+      <c r="C11" s="17" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="12" ht="22" customHeight="1">
-      <c r="A12" t="s" s="9">
+    <row r="12" ht="22" customHeight="1" spans="1:3">
+      <c r="A12" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="B12" t="s" s="51">
+      <c r="B12" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="C12" t="s" s="52">
+      <c r="C12" s="17" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="13" ht="22" customHeight="1">
-      <c r="A13" t="s" s="9">
+    <row r="13" ht="22" customHeight="1" spans="1:3">
+      <c r="A13" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="B13" t="s" s="51">
+      <c r="B13" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="C13" t="s" s="52">
+      <c r="C13" s="17" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="14" ht="22" customHeight="1">
-      <c r="A14" t="s" s="9">
+    <row r="14" ht="22" customHeight="1" spans="1:3">
+      <c r="A14" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="B14" t="s" s="51">
+      <c r="B14" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="C14" t="s" s="52">
+      <c r="C14" s="17" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="15" ht="22" customHeight="1">
-      <c r="A15" t="s" s="9">
+    <row r="15" ht="22" customHeight="1" spans="1:3">
+      <c r="A15" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B15" t="s" s="51">
+      <c r="B15" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="C15" t="s" s="52">
+      <c r="C15" s="17" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="16" ht="22" customHeight="1">
-      <c r="A16" t="s" s="9">
+    <row r="16" ht="22" customHeight="1" spans="1:3">
+      <c r="A16" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B16" t="s" s="51">
+      <c r="B16" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="C16" t="s" s="52">
+      <c r="C16" s="17" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="17" ht="22" customHeight="1">
-      <c r="A17" t="s" s="9">
+    <row r="17" ht="22" customHeight="1" spans="1:3">
+      <c r="A17" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B17" t="s" s="51">
+      <c r="B17" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="C17" t="s" s="52">
+      <c r="C17" s="17" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="18" ht="22" customHeight="1">
-      <c r="A18" t="s" s="9">
+    <row r="18" ht="22" customHeight="1" spans="1:3">
+      <c r="A18" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="B18" t="s" s="51">
+      <c r="B18" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="C18" t="s" s="52">
+      <c r="C18" s="17" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="19" ht="22" customHeight="1">
-      <c r="A19" t="s" s="9">
+    <row r="19" ht="22" customHeight="1" spans="1:3">
+      <c r="A19" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B19" t="s" s="51">
+      <c r="B19" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="C19" t="s" s="52">
+      <c r="C19" s="17" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="20" ht="22" customHeight="1">
-      <c r="A20" t="s" s="9">
+    <row r="20" ht="22" customHeight="1" spans="1:3">
+      <c r="A20" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B20" t="s" s="51">
+      <c r="B20" s="16" t="s">
         <v>429</v>
       </c>
-      <c r="C20" t="s" s="52">
+      <c r="C20" s="17" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="21" ht="22" customHeight="1">
-      <c r="A21" t="s" s="9">
+    <row r="21" ht="22" customHeight="1" spans="1:3">
+      <c r="A21" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="B21" t="s" s="51">
+      <c r="B21" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="C21" t="s" s="52">
+      <c r="C21" s="17" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="22" ht="22" customHeight="1">
-      <c r="A22" t="s" s="9">
+    <row r="22" ht="22" customHeight="1" spans="1:3">
+      <c r="A22" s="9" t="s">
         <v>244</v>
       </c>
-      <c r="B22" t="s" s="51">
+      <c r="B22" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="C22" t="s" s="52">
+      <c r="C22" s="17" t="s">
         <v>434</v>
       </c>
     </row>
@@ -4737,7 +5402,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4745,149 +5410,153 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="62" customWidth="1"/>
-    <col min="2" max="2" width="10.3516" style="62" customWidth="1"/>
-    <col min="3" max="3" width="11.2578" style="62" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="62" customWidth="1"/>
+    <col min="1" max="1" width="12.3796296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.2592592592593" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="69.2" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="69.2" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>435</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="22.55" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="22.2" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" ht="22.2" customHeight="1" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B3" t="s" s="49">
+      <c r="B3" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="C3" t="s" s="50">
+      <c r="C3" s="15" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="4" ht="22" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" ht="22" customHeight="1" spans="1:3">
+      <c r="A4" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B4" t="s" s="51">
+      <c r="B4" s="16" t="s">
         <v>438</v>
       </c>
-      <c r="C4" t="s" s="52">
+      <c r="C4" s="17" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="5" ht="22" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" ht="22" customHeight="1" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="B5" t="s" s="51">
+      <c r="B5" s="16" t="s">
         <v>440</v>
       </c>
-      <c r="C5" t="s" s="52">
+      <c r="C5" s="17" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="6" ht="22" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" ht="22" customHeight="1" spans="1:3">
+      <c r="A6" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B6" t="s" s="51">
+      <c r="B6" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="C6" t="s" s="52">
+      <c r="C6" s="17" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="7" ht="22" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" ht="22" customHeight="1" spans="1:3">
+      <c r="A7" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="B7" t="s" s="51">
+      <c r="B7" s="16" t="s">
         <v>444</v>
       </c>
-      <c r="C7" t="s" s="52">
+      <c r="C7" s="17" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="8" ht="22" customHeight="1">
-      <c r="A8" t="s" s="9">
+    <row r="8" ht="22" customHeight="1" spans="1:3">
+      <c r="A8" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="B8" t="s" s="51">
+      <c r="B8" s="16" t="s">
         <v>446</v>
       </c>
-      <c r="C8" t="s" s="52">
+      <c r="C8" s="17" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="9" ht="22" customHeight="1">
-      <c r="A9" t="s" s="9">
+    <row r="9" ht="22" customHeight="1" spans="1:3">
+      <c r="A9" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B9" t="s" s="51">
+      <c r="B9" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="C9" t="s" s="52">
+      <c r="C9" s="17" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="10" ht="22" customHeight="1">
-      <c r="A10" t="s" s="9">
+    <row r="10" ht="22" customHeight="1" spans="1:3">
+      <c r="A10" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B10" t="s" s="51">
+      <c r="B10" s="16" t="s">
         <v>450</v>
       </c>
-      <c r="C10" t="s" s="52">
+      <c r="C10" s="17" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="11" ht="22" customHeight="1">
-      <c r="A11" t="s" s="9">
+    <row r="11" ht="22" customHeight="1" spans="1:3">
+      <c r="A11" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B11" t="s" s="51">
+      <c r="B11" s="16" t="s">
         <v>452</v>
       </c>
-      <c r="C11" t="s" s="52">
+      <c r="C11" s="17" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="12" ht="22" customHeight="1">
-      <c r="A12" t="s" s="9">
+    <row r="12" ht="22" customHeight="1" spans="1:3">
+      <c r="A12" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B12" t="s" s="51">
+      <c r="B12" s="16" t="s">
         <v>454</v>
       </c>
-      <c r="C12" t="s" s="52">
+      <c r="C12" s="17" t="s">
         <v>455</v>
       </c>
     </row>
@@ -4896,7 +5565,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4904,24 +5573,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E43"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="16.3516" style="13" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="13" customWidth="1"/>
+    <col min="1" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="31" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B1" s="2"/>
@@ -4929,619 +5601,619 @@
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="22.55" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="14">
+    <row r="3" ht="22.55" customHeight="1" spans="1:5">
+      <c r="A3" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B3" t="s" s="15">
+      <c r="B3" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="C3" t="s" s="16">
+      <c r="C3" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D3" t="s" s="17">
+      <c r="D3" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E3" t="s" s="17">
+      <c r="E3" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" t="s" s="20">
+    <row r="4" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A4" s="8"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D4" t="s" s="21">
+      <c r="D4" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s" s="21">
+      <c r="E4" s="40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" t="s" s="20">
+    <row r="5" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A5" s="8"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D5" t="s" s="21">
+      <c r="D5" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="E5" t="s" s="21">
+      <c r="E5" s="40" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" t="s" s="22">
+    <row r="6" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A6" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="B6" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D6" t="s" s="12">
+      <c r="D6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E6" t="s" s="12">
+      <c r="E6" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" t="s" s="10">
+    <row r="7" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A7" s="8"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D7" t="s" s="12">
+      <c r="D7" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E7" t="s" s="12">
+      <c r="E7" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" ht="22.35" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" t="s" s="9">
+    <row r="8" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C8" t="s" s="10">
+      <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D8" t="s" s="12">
+      <c r="D8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E8" t="s" s="12">
+      <c r="E8" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" ht="22.35" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" t="s" s="10">
+    <row r="9" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A9" s="8"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D9" t="s" s="12">
+      <c r="D9" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E9" t="s" s="12">
+      <c r="E9" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" ht="22.35" customHeight="1">
-      <c r="A10" s="18"/>
-      <c r="B10" t="s" s="9">
+    <row r="10" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s" s="10">
+      <c r="C10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s" s="12">
+      <c r="D10" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E10" t="s" s="12">
+      <c r="E10" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" ht="22.35" customHeight="1">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" t="s" s="10">
+    <row r="11" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A11" s="8"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s" s="12">
+      <c r="D11" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E11" t="s" s="12">
+      <c r="E11" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" ht="22.35" customHeight="1">
-      <c r="A12" s="18"/>
-      <c r="B12" t="s" s="9">
+    <row r="12" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C12" t="s" s="10">
+      <c r="C12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D12" t="s" s="12">
+      <c r="D12" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E12" t="s" s="12">
+      <c r="E12" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="13" ht="22.35" customHeight="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" t="s" s="10">
+    <row r="13" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A13" s="8"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s" s="12">
+      <c r="D13" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E13" t="s" s="12">
+      <c r="E13" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14" ht="22.35" customHeight="1">
-      <c r="A14" t="s" s="22">
+    <row r="14" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A14" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B14" t="s" s="9">
+      <c r="B14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s" s="10">
+      <c r="C14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D14" t="s" s="12">
+      <c r="D14" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E14" t="s" s="12">
+      <c r="E14" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" ht="22.35" customHeight="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" t="s" s="10">
+    <row r="15" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A15" s="8"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s" s="12">
+      <c r="D15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E15" t="s" s="12">
+      <c r="E15" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" ht="22.35" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" t="s" s="10">
+    <row r="16" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A16" s="8"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D16" t="s" s="12">
+      <c r="D16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E16" t="s" s="12">
+      <c r="E16" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" ht="22.35" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" t="s" s="9">
+    <row r="17" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C17" t="s" s="10">
+      <c r="C17" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D17" t="s" s="12">
+      <c r="D17" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E17" t="s" s="12">
+      <c r="E17" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="18" ht="22.35" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" t="s" s="10">
+    <row r="18" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A18" s="8"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D18" t="s" s="12">
+      <c r="D18" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E18" t="s" s="12">
+      <c r="E18" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" ht="22.35" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" t="s" s="10">
+    <row r="19" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A19" s="8"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D19" t="s" s="12">
+      <c r="D19" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E19" t="s" s="12">
+      <c r="E19" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" ht="22.35" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" t="s" s="9">
+    <row r="20" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C20" t="s" s="10">
+      <c r="C20" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D20" t="s" s="12">
+      <c r="D20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E20" t="s" s="12">
+      <c r="E20" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" ht="22.35" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" t="s" s="10">
+    <row r="21" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A21" s="8"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D21" t="s" s="12">
+      <c r="D21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E21" t="s" s="12">
+      <c r="E21" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" ht="22.35" customHeight="1">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" t="s" s="10">
+    <row r="22" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A22" s="8"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D22" t="s" s="12">
+      <c r="D22" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E22" t="s" s="12">
+      <c r="E22" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" ht="22.35" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" t="s" s="10">
+    <row r="23" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A23" s="8"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D23" t="s" s="12">
+      <c r="D23" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E23" t="s" s="12">
+      <c r="E23" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" ht="22.35" customHeight="1">
-      <c r="A24" s="18"/>
-      <c r="B24" t="s" s="9">
+    <row r="24" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C24" t="s" s="10">
+      <c r="C24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D24" t="s" s="12">
+      <c r="D24" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E24" t="s" s="12">
+      <c r="E24" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" ht="22.35" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" t="s" s="10">
+    <row r="25" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A25" s="8"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D25" t="s" s="12">
+      <c r="D25" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E25" t="s" s="12">
+      <c r="E25" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="26" ht="22.35" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" t="s" s="10">
+    <row r="26" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A26" s="8"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D26" t="s" s="12">
+      <c r="D26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E26" t="s" s="12">
+      <c r="E26" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" ht="22.35" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" t="s" s="10">
+    <row r="27" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A27" s="8"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D27" t="s" s="12">
+      <c r="D27" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E27" t="s" s="12">
+      <c r="E27" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" ht="22.35" customHeight="1">
-      <c r="A28" t="s" s="22">
-        <v>57</v>
-      </c>
-      <c r="B28" t="s" s="9">
+    <row r="28" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A28" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C28" t="s" s="10">
+      <c r="C28" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D28" t="s" s="12">
+      <c r="D28" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E28" t="s" s="12">
+      <c r="E28" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" ht="22.35" customHeight="1">
-      <c r="A29" s="18"/>
-      <c r="B29" s="19"/>
-      <c r="C29" t="s" s="10">
+    <row r="29" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A29" s="8"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D29" t="s" s="12">
+      <c r="D29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E29" t="s" s="12">
+      <c r="E29" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="30" ht="22.35" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" t="s" s="10">
+    <row r="30" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A30" s="8"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D30" t="s" s="12">
+      <c r="D30" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E30" t="s" s="12">
+      <c r="E30" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" ht="22.35" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" t="s" s="9">
+    <row r="31" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A31" s="8"/>
+      <c r="B31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C31" t="s" s="10">
+      <c r="C31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D31" t="s" s="12">
+      <c r="D31" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E31" t="s" s="12">
+      <c r="E31" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" ht="22.35" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="19"/>
-      <c r="C32" t="s" s="10">
+    <row r="32" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A32" s="8"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D32" t="s" s="12">
+      <c r="D32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E32" t="s" s="12">
+      <c r="E32" s="11" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" ht="22.35" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" t="s" s="10">
+    <row r="33" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A33" s="8"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D33" t="s" s="12">
+      <c r="D33" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E33" t="s" s="12">
+      <c r="E33" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="34" ht="22.35" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" t="s" s="9">
+    <row r="34" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A34" s="8"/>
+      <c r="B34" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C34" t="s" s="10">
+      <c r="C34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D34" t="s" s="12">
+      <c r="D34" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E34" t="s" s="12">
+      <c r="E34" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" ht="22.35" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" t="s" s="10">
+    <row r="35" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A35" s="8"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D35" t="s" s="12">
+      <c r="D35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E35" t="s" s="12">
+      <c r="E35" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="36" ht="22.35" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="19"/>
-      <c r="C36" t="s" s="10">
+    <row r="36" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A36" s="8"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D36" t="s" s="12">
+      <c r="D36" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E36" t="s" s="12">
+      <c r="E36" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" ht="22.35" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="19"/>
-      <c r="C37" t="s" s="10">
+    <row r="37" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A37" s="8"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D37" t="s" s="12">
-        <v>64</v>
-      </c>
-      <c r="E37" t="s" s="12">
+      <c r="D37" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E37" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="38" ht="22.35" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" t="s" s="9">
+    <row r="38" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A38" s="8"/>
+      <c r="B38" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="C38" t="s" s="10">
+      <c r="C38" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D38" t="s" s="12">
+      <c r="D38" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E38" t="s" s="12">
+      <c r="E38" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="39" ht="22.35" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="19"/>
-      <c r="C39" t="s" s="10">
+    <row r="39" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A39" s="8"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D39" t="s" s="12">
+      <c r="D39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E39" t="s" s="12">
+      <c r="E39" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" ht="22.35" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" t="s" s="10">
+    <row r="40" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A40" s="8"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D40" t="s" s="12">
+      <c r="D40" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E40" t="s" s="12">
+      <c r="E40" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" ht="22.35" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" t="s" s="10">
+    <row r="41" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A41" s="8"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D41" t="s" s="12">
-        <v>64</v>
-      </c>
-      <c r="E41" t="s" s="12">
+      <c r="D41" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="42" ht="22.35" customHeight="1">
-      <c r="A42" t="s" s="23">
-        <v>65</v>
-      </c>
-      <c r="B42" t="s" s="24">
+    <row r="42" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A42" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="C42" t="s" s="20">
+      <c r="C42" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="D42" t="s" s="21">
-        <v>66</v>
-      </c>
-      <c r="E42" t="s" s="21">
+      <c r="D42" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="40" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" ht="22.35" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19"/>
-      <c r="C43" t="s" s="20">
+    <row r="43" ht="22.35" customHeight="1" spans="1:5">
+      <c r="A43" s="8"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D43" t="s" s="21">
+      <c r="D43" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="E43" t="s" s="21">
+      <c r="E43" s="40" t="s">
         <v>59</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A14:A27"/>
+    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="A6:A13"/>
     <mergeCell ref="B14:B16"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A14:A27"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A42:A43"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A28:A41"/>
+    <mergeCell ref="B42:B43"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5549,96 +6221,100 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.7734" style="63" customWidth="1"/>
-    <col min="2" max="2" width="9.88281" style="63" customWidth="1"/>
-    <col min="3" max="3" width="11.1406" style="63" customWidth="1"/>
-    <col min="4" max="4" width="11.1797" style="63" customWidth="1"/>
-    <col min="5" max="16384" width="16.3516" style="63" customWidth="1"/>
+    <col min="1" max="1" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.87962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1388888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1759259259259" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="42">
+    <row r="1" ht="31" customHeight="1" spans="1:4">
+      <c r="A1" s="13" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-    </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" ht="22.55" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="27">
+    <row r="3" ht="22.55" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="7" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" t="s" s="9">
+    <row r="4" ht="22.35" customHeight="1" spans="1:4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="D4" s="11" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="22">
+    <row r="5" ht="22.35" customHeight="1" spans="1:4">
+      <c r="A5" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" s="11" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" t="s" s="9">
+    <row r="6" ht="22.35" customHeight="1" spans="1:4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="C6" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="D6" t="s" s="12">
+      <c r="D6" s="11" t="s">
         <v>464</v>
       </c>
     </row>
@@ -5649,7 +6325,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5657,96 +6333,100 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:D6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="10.7734" style="64" customWidth="1"/>
-    <col min="2" max="2" width="9.88281" style="64" customWidth="1"/>
-    <col min="3" max="3" width="11.1406" style="64" customWidth="1"/>
-    <col min="4" max="4" width="11.1797" style="64" customWidth="1"/>
-    <col min="5" max="16384" width="16.3516" style="64" customWidth="1"/>
+    <col min="1" max="1" width="10.7777777777778" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.87962962962963" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1388888888889" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1759259259259" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="31" customHeight="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>465</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="22.55" customHeight="1" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="27">
+    <row r="3" ht="22.55" customHeight="1" spans="1:4">
+      <c r="A3" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s" s="6">
+      <c r="C3" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="7" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" t="s" s="9">
+    <row r="4" ht="22.35" customHeight="1" spans="1:4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="D4" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="22">
+    <row r="5" ht="22.35" customHeight="1" spans="1:4">
+      <c r="A5" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="B5" t="s" s="9">
+      <c r="B5" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" s="11" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" t="s" s="9">
+    <row r="6" ht="22.35" customHeight="1" spans="1:4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C6" t="s" s="10">
+      <c r="C6" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="D6" t="s" s="12">
+      <c r="D6" s="11" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5757,7 +6437,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5765,25 +6445,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:F7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C3" xSplit="2" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="6" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="22.9141" style="25" customWidth="1"/>
-    <col min="3" max="6" width="14.8906" style="25" customWidth="1"/>
-    <col min="7" max="16384" width="16.3516" style="25" customWidth="1"/>
+    <col min="1" max="2" width="22.9166666666667" style="1" customWidth="1"/>
+    <col min="3" max="6" width="14.8888888888889" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="31" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B1" s="2"/>
@@ -5792,109 +6476,109 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="26">
+    <row r="2" ht="22.55" customHeight="1" spans="1:6">
+      <c r="A2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="26">
+      <c r="B2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="C2" t="s" s="26">
-        <v>67</v>
-      </c>
-      <c r="D2" t="s" s="26">
+      <c r="C2" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E2" t="s" s="26">
+      <c r="D2" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="F2" t="s" s="26">
+      <c r="E2" s="26" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="27">
+      <c r="F2" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B3" t="s" s="5">
+    </row>
+    <row r="3" ht="22.55" customHeight="1" spans="1:6">
+      <c r="A3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C3" t="s" s="28">
+      <c r="B3" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D3" t="s" s="29">
+      <c r="C3" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="E3" t="s" s="29">
-        <v>73</v>
-      </c>
-      <c r="F3" t="s" s="29">
+      <c r="D3" s="28" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" t="s" s="30">
+      <c r="E3" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D4" t="s" s="31">
+    </row>
+    <row r="4" ht="22.35" customHeight="1" spans="1:6">
+      <c r="A4" s="8"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30" t="s">
         <v>77</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>78</v>
       </c>
       <c r="E4" s="32">
         <v>0</v>
       </c>
-      <c r="F4" s="11"/>
-    </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="33"/>
-      <c r="D5" t="s" s="31">
-        <v>78</v>
-      </c>
-      <c r="E5" t="s" s="31">
+      <c r="F4" s="33"/>
+    </row>
+    <row r="5" ht="22.35" customHeight="1" spans="1:6">
+      <c r="A5" s="8"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="11"/>
-    </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" t="s" s="30">
-        <v>79</v>
-      </c>
-      <c r="D6" t="s" s="31">
+      <c r="F5" s="33"/>
+    </row>
+    <row r="6" ht="22.35" customHeight="1" spans="1:6">
+      <c r="A6" s="8"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30" t="s">
         <v>80</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>81</v>
       </c>
       <c r="E6" s="32">
         <v>0</v>
       </c>
-      <c r="F6" s="11"/>
-    </row>
-    <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="33"/>
-      <c r="D7" t="s" s="31">
-        <v>81</v>
-      </c>
-      <c r="E7" t="s" s="31">
+      <c r="F6" s="33"/>
+    </row>
+    <row r="7" ht="22.35" customHeight="1" spans="1:6">
+      <c r="A7" s="8"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="E7" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="B3:B7"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="F3:F7"/>
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="A3:A7"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5902,82 +6586,86 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C2" xSplit="2" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="2" width="16.3516" style="34" customWidth="1"/>
-    <col min="3" max="3" width="29.5547" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="34" customWidth="1"/>
+    <col min="1" max="2" width="16.3518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5555555555556" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.55" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" ht="22.55" customHeight="1" spans="1:3">
+      <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="C1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="27">
+      <c r="C1" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B2" t="s" s="5">
+    </row>
+    <row r="2" ht="22.55" customHeight="1" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s" s="6">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" ht="22.35" customHeight="1">
-      <c r="A3" t="s" s="22">
+      <c r="C2" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" ht="22.35" customHeight="1" spans="1:3">
+      <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s" s="10">
+      <c r="B3" s="9" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" t="s" s="9">
+      <c r="C3" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C4" t="s" s="10">
+    </row>
+    <row r="4" ht="22.35" customHeight="1" spans="1:3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="22">
+      <c r="C4" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="B5" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s" s="10">
+    </row>
+    <row r="5" ht="22.35" customHeight="1" spans="1:3">
+      <c r="A5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s" s="10">
+    <row r="6" ht="22.35" customHeight="1" spans="1:3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5987,7 +6675,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5995,101 +6683,105 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C2" xSplit="2" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="16.3516" style="35" customWidth="1"/>
-    <col min="3" max="3" width="45.2891" style="35" customWidth="1"/>
-    <col min="4" max="4" width="29.5547" style="35" customWidth="1"/>
-    <col min="5" max="16384" width="16.3516" style="35" customWidth="1"/>
+    <col min="1" max="2" width="16.3518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.287037037037" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.55" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" ht="22.55" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>83</v>
-      </c>
-      <c r="C1" t="s" s="3">
+      <c r="B1" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="27">
-        <v>85</v>
-      </c>
-      <c r="B2" t="s" s="5">
+    <row r="2" ht="22.55" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" ht="22.35" customHeight="1">
-      <c r="A3" t="s" s="22">
+    <row r="3" ht="22.35" customHeight="1" spans="1:4">
+      <c r="A3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B3" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="C3" t="s" s="10">
+      <c r="B3" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" s="18"/>
-      <c r="B4" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="C4" t="s" s="10">
+    <row r="4" ht="22.35" customHeight="1" spans="1:4">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="D4" s="11" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="22">
-        <v>91</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>87</v>
-      </c>
-      <c r="C5" t="s" s="10">
+    <row r="5" ht="22.35" customHeight="1" spans="1:4">
+      <c r="A5" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" ht="22.35" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" t="s" s="9">
-        <v>89</v>
-      </c>
-      <c r="C6" t="s" s="10">
+    <row r="6" ht="22.35" customHeight="1" spans="1:4">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D6" t="s" s="12">
+      <c r="D6" s="11" t="s">
         <v>102</v>
       </c>
     </row>
@@ -6099,7 +6791,7 @@
     <mergeCell ref="A5:A6"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6107,82 +6799,86 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B2" xSplit="1" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="36" customWidth="1"/>
-    <col min="2" max="2" width="45.2891" style="36" customWidth="1"/>
-    <col min="3" max="16384" width="16.3516" style="36" customWidth="1"/>
+    <col min="1" max="1" width="16.3518518518519" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.287037037037" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.55" customHeight="1">
-      <c r="A1" t="s" s="3">
+    <row r="1" ht="22.55" customHeight="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" ht="36.8" customHeight="1">
-      <c r="A2" t="s" s="37">
+    <row r="2" ht="36.8" customHeight="1" spans="1:2">
+      <c r="A2" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="B2" t="s" s="6">
+      <c r="B2" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="3" ht="36.35" customHeight="1">
-      <c r="A3" t="s" s="38">
+    <row r="3" ht="36.35" customHeight="1" spans="1:2">
+      <c r="A3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s" s="10">
+      <c r="B3" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="4" ht="22.35" customHeight="1">
-      <c r="A4" t="s" s="38">
+    <row r="4" ht="22.35" customHeight="1" spans="1:2">
+      <c r="A4" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="38">
+    <row r="5" ht="22.35" customHeight="1" spans="1:2">
+      <c r="A5" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" s="10" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="6" ht="36.35" customHeight="1">
-      <c r="A6" t="s" s="38">
+    <row r="6" ht="36.35" customHeight="1" spans="1:2">
+      <c r="A6" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" ht="22.35" customHeight="1">
-      <c r="A7" t="s" s="38">
+    <row r="7" ht="22.35" customHeight="1" spans="1:2">
+      <c r="A7" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="B7" t="s" s="10">
+      <c r="B7" s="10" t="s">
         <v>111</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6190,96 +6886,99 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="C2" xSplit="2" ySplit="1" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="1.84375" style="39" customWidth="1"/>
-    <col min="2" max="5" width="16.3516" style="39" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="39" customWidth="1"/>
+    <col min="1" max="1" width="1.84259259259259" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.55" customHeight="1">
-      <c r="B1" t="s" s="3">
+    <row r="1" ht="22.55" customHeight="1" spans="2:5">
+      <c r="B1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="2" ht="162.55" customHeight="1">
-      <c r="B2" t="s" s="5">
+    <row r="2" ht="162.55" customHeight="1" spans="2:5">
+      <c r="B2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="D2" t="s" s="7">
+      <c r="D2" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="E2" t="s" s="7">
+      <c r="E2" s="7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" ht="276.3" customHeight="1">
-      <c r="B3" t="s" s="9">
+    <row r="3" ht="276.3" customHeight="1" spans="2:5">
+      <c r="B3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="D3" t="s" s="12">
+      <c r="D3" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E3" t="s" s="12">
+      <c r="E3" s="11" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" ht="190.6" customHeight="1">
-      <c r="B4" t="s" s="9">
+    <row r="4" ht="190.6" customHeight="1" spans="2:5">
+      <c r="B4" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s" s="10">
+      <c r="C4" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="D4" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E4" t="s" s="12">
+      <c r="E4" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" ht="219.15" customHeight="1">
-      <c r="B5" t="s" s="9">
+    <row r="5" ht="219.15" customHeight="1" spans="2:5">
+      <c r="B5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" s="11" t="s">
         <v>126</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6287,105 +6986,109 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:C8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="7" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="20.6328" style="40" customWidth="1"/>
-    <col min="2" max="2" width="20.7344" style="40" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="40" customWidth="1"/>
-    <col min="4" max="16384" width="16.3516" style="40" customWidth="1"/>
+    <col min="1" max="1" width="20.6296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7314814814815" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="31" customHeight="1" spans="1:3">
+      <c r="A1" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+    <row r="2" ht="22.55" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" ht="20.25" customHeight="1" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" ht="20.05" customHeight="1" spans="1:3">
+      <c r="A4" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" ht="20.05" customHeight="1" spans="1:3">
+      <c r="A5" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" ht="20.05" customHeight="1" spans="1:3">
+      <c r="A6" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="C6" s="11" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" ht="20.05" customHeight="1" spans="1:3">
+      <c r="A7" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B7" t="s" s="10">
+      <c r="B7" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C7" t="s" s="12">
+      <c r="C7" s="11" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
+    <row r="8" ht="20.05" customHeight="1" spans="1:3">
+      <c r="A8" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B8" t="s" s="10">
+      <c r="B8" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C8" t="s" s="12">
+      <c r="C8" s="11" t="s">
         <v>147</v>
       </c>
     </row>
@@ -6394,7 +7097,7 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6402,150 +7105,153 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20.6328" style="41" customWidth="1"/>
-    <col min="2" max="2" width="20.7344" style="41" customWidth="1"/>
-    <col min="3" max="3" width="24.75" style="41" customWidth="1"/>
-    <col min="4" max="5" width="16.3516" style="41" customWidth="1"/>
-    <col min="6" max="16384" width="16.3516" style="41" customWidth="1"/>
+    <col min="1" max="1" width="20.6296296296296" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7314814814815" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.75" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="16.3518518518519" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="42">
+    <row r="1" ht="31" customHeight="1" spans="1:5">
+      <c r="A1" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" ht="22.55" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" ht="22.55" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" ht="20.25" customHeight="1" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C3" t="s" s="7">
+      <c r="C3" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="D3" t="s" s="7">
+      <c r="D3" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="E3" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="4" ht="20.05" customHeight="1" spans="1:5">
+      <c r="A4" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B4" t="s" s="10">
+      <c r="B4" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="D4" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E4" t="s" s="12">
+      <c r="E4" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
+    <row r="5" ht="20.05" customHeight="1" spans="1:5">
+      <c r="A5" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B5" t="s" s="10">
+      <c r="B5" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="C5" t="s" s="12">
+      <c r="C5" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D5" t="s" s="12">
+      <c r="D5" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E5" t="s" s="12">
+      <c r="E5" s="11" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
+    <row r="6" ht="20.05" customHeight="1" spans="1:5">
+      <c r="A6" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B6" t="s" s="10">
+      <c r="B6" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C6" t="s" s="12">
+      <c r="C6" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="D6" t="s" s="12">
+      <c r="D6" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E6" t="s" s="12">
+      <c r="E6" s="11" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
+    <row r="7" ht="20.05" customHeight="1" spans="1:5">
+      <c r="A7" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B7" t="s" s="10">
+      <c r="B7" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="C7" t="s" s="12">
+      <c r="C7" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D7" t="s" s="12">
+      <c r="D7" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E7" t="s" s="12">
+      <c r="E7" s="11" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
+    <row r="8" ht="20.05" customHeight="1" spans="1:5">
+      <c r="A8" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B8" t="s" s="10">
+      <c r="B8" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="C8" t="s" s="12">
+      <c r="C8" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D8" t="s" s="12">
+      <c r="D8" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="E8" t="s" s="12">
+      <c r="E8" s="11" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6554,7 +7260,7 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
